--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Order Items" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Order ID</t>
   </si>
@@ -30,6 +30,18 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>set meal</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -74,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,6 +112,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Order ID</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>set meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FRIES</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>chicken nugget</t>
   </si>
   <si>
     <t/>
@@ -86,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,7 +126,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -130,6 +142,66 @@
       </c>
       <c r="F2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -6,18 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Order Items" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Order ID</t>
-  </si>
-  <si>
-    <t>Branch</t>
   </si>
   <si>
     <t>Name</t>
@@ -26,10 +23,31 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Branch</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>set meal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FRIES</t>
+  </si>
+  <si>
+    <t>side</t>
   </si>
 </sst>
 </file>
@@ -74,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,13 +112,50 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Order ID</t>
   </si>
@@ -32,22 +32,16 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>3PC set meal</t>
+    <t>FRIES</t>
   </si>
   <si>
     <t>NTU</t>
   </si>
   <si>
-    <t>set meal</t>
+    <t>side</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FRIES</t>
-  </si>
-  <si>
-    <t>side</t>
   </si>
 </sst>
 </file>
@@ -92,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,13 +114,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>9.899999618530273</v>
+        <v>3.200000047683716</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -138,26 +132,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.200000047683716</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Order ID</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>set meal</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,6 +141,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
   <si>
     <t>Order ID</t>
   </si>
@@ -41,7 +41,16 @@
     <t>side</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>COLE SLAW</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>lmao</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -212,6 +221,286 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="13">
   <si>
     <t>Order ID</t>
   </si>
@@ -50,7 +50,7 @@
     <t>JE</t>
   </si>
   <si>
-    <t>lmao</t>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -438,7 +438,7 @@
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -458,7 +458,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -478,7 +478,7 @@
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -498,6 +498,206 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
         <v>12</v>
       </c>
     </row>

--- a/src/main/resources/xlsx/order_items.xlsx
+++ b/src/main/resources/xlsx/order_items.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
   <si>
     <t>Order ID</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>3PC set meal</t>
+  </si>
+  <si>
+    <t>set meal</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -132,6 +138,306 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.200000047683716</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.899999618530273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
